--- a/SAO_FRANCISCO_DE_ASSIS.xlsx
+++ b/SAO_FRANCISCO_DE_ASSIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F87496D-21F4-446C-B186-453EE5F12120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61304848-EFCE-4414-9EBE-5285C74DBA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1204,7 +1204,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{1F22E988-7900-4994-B3B0-8350C3D07EEC}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{825649A7-43D5-494F-999B-364D5ACF7D1C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,10 +1234,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FC8BC0A-6B54-40BC-8C62-EFED456F2B66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D8379C4-CF8A-4ADF-ABAA-AC5028591CF4}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1275,7 +1275,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8211ECBA-62B1-4837-848F-C0CE7B7049EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63C71972-6E76-4B91-8FB4-913FA363E76B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1338,7 +1338,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95A09DCC-21C2-49C8-AF3E-E6E7AA5B5571}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79EB9845-830C-4CE7-B23C-C5B3821DDC4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1357,7 +1357,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2E6C929-BD4C-7370-05D8-E387D1D78A6A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73929150-DD10-ECB3-3BA8-A610576556EC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1406,7 +1406,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2875DB3F-8A64-5AE5-FCEF-F996126F163C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{256CFB98-79FD-55D0-85D8-8860D28B1CA0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1425,7 +1425,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{177B07DA-EC72-807C-E92F-E3373A8EA1B1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD737897-8755-23FA-B43F-799E020AFEA6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1456,7 +1456,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0961F89-FCD0-0593-B6C0-D56D505758EC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93D3165C-4B53-0DBA-D4F1-DB0EB3EEB41C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1487,7 +1487,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7951A3C7-369D-AC4E-E674-D5344650B23A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA582DB3-1EF0-AA37-BAA4-4725BFDC4AFB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1530,7 +1530,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C0EC9AA-BE1F-496A-8CFF-1B069D8AF413}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48CC2DAE-4535-4C4D-BA4F-55430613FBD5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1568,7 +1568,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{149A612B-C247-4E8C-9E3D-6A7F556D404A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92A02279-B29A-407D-A584-A0FA6966F18A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1611,7 +1611,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4900300-1EBD-4CBB-9878-4301F163797B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11D3E6E6-9514-4F85-8BE0-818D69ADE9FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1924,7 +1924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2EDC35-C8C6-44F0-8D09-E16A6A713225}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78AEA2CC-6CA8-475C-B0CC-C4B560CFA8A5}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/SAO_FRANCISCO_DE_ASSIS.xlsx
+++ b/SAO_FRANCISCO_DE_ASSIS.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61304848-EFCE-4414-9EBE-5285C74DBA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55A928D9-DD20-43C7-8AD1-EFCD4C41EDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="297">
   <si>
     <t>COMARCA</t>
   </si>
@@ -917,15 +916,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>SÃO FRANCISCO DE ASSIS</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1107,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1184,27 +1174,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{825649A7-43D5-494F-999B-364D5ACF7D1C}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{AEFC0DDA-5E79-4622-A427-086032E13DFE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,10 +1209,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D8379C4-CF8A-4ADF-ABAA-AC5028591CF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87DAB40F-080C-4CB4-B0CE-17E69ADDC6E4}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1275,7 +1250,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63C71972-6E76-4B91-8FB4-913FA363E76B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A65D02A1-F944-4956-8AA4-589A48663AEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1338,7 +1313,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79EB9845-830C-4CE7-B23C-C5B3821DDC4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D9F772E-388B-4076-A3EF-912FE9BB2A7A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1357,7 +1332,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73929150-DD10-ECB3-3BA8-A610576556EC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{215F6F9D-9D07-448D-3582-B982F85E6237}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1406,7 +1381,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{256CFB98-79FD-55D0-85D8-8860D28B1CA0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D46A12B3-16DA-9C4F-3DED-2DEB43AFC6D5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1425,7 +1400,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD737897-8755-23FA-B43F-799E020AFEA6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63C0A91E-7C1A-C299-FA29-16797EF30C06}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1456,7 +1431,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93D3165C-4B53-0DBA-D4F1-DB0EB3EEB41C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4D5D035-3B9A-1E33-66CF-683DEEA1AC5F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1487,7 +1462,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA582DB3-1EF0-AA37-BAA4-4725BFDC4AFB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2532F37C-4033-80B8-AEEE-90629F5F2399}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1530,7 +1505,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48CC2DAE-4535-4C4D-BA4F-55430613FBD5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{820DB6F4-1BB2-4197-BBA0-49BED97A2C01}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1568,7 +1543,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92A02279-B29A-407D-A584-A0FA6966F18A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DEBCB5A-C637-4876-A294-334954BEE986}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1611,7 +1586,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11D3E6E6-9514-4F85-8BE0-818D69ADE9FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E86D7438-C75B-4EAD-9EEC-FB7479E8A416}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1924,7 +1899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78AEA2CC-6CA8-475C-B0CC-C4B560CFA8A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42193964-8DDF-4875-8854-D0086D5D6B08}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1936,98 +1911,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="34"/>
-    <col min="6" max="6" width="2" style="34" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="34"/>
+    <col min="1" max="5" width="12.5703125" style="29"/>
+    <col min="6" max="6" width="2" style="29" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="29" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="33"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="33"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="33"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="33"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="33"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="33"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="33"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="33"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="33"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="33"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="33"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="33"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="33"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="33"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="33"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="33"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="33"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="33"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="33"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="33"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="33"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="33"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="33"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="33"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="33"/>
+      <c r="F25" s="28"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="33"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="33"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="33"/>
+      <c r="F28" s="28"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="33"/>
+      <c r="F29" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5462,52 +5437,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>298</v>
-      </c>
-      <c r="E1" s="29">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>299</v>
-      </c>
-      <c r="B2" s="32">
-        <v>53</v>
-      </c>
-      <c r="C2" s="30">
-        <v>3.504827403782568E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/SAO_FRANCISCO_DE_ASSIS.xlsx
+++ b/SAO_FRANCISCO_DE_ASSIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55A928D9-DD20-43C7-8AD1-EFCD4C41EDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{764751FC-648A-4015-A625-FDB2F578B292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1179,7 +1179,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{AEFC0DDA-5E79-4622-A427-086032E13DFE}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{0B22A7F6-B113-455A-ABCD-E23AD0BB0F76}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1209,10 +1209,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87DAB40F-080C-4CB4-B0CE-17E69ADDC6E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDEF23ED-05BC-45C1-81EB-A114072F2661}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1250,7 +1250,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A65D02A1-F944-4956-8AA4-589A48663AEE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94FF31C7-2B37-447C-A3D5-0E9B6C253660}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1313,7 +1313,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D9F772E-388B-4076-A3EF-912FE9BB2A7A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33D3D31E-2BB7-4AF1-88FE-E6EEB608312E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1332,7 +1332,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{215F6F9D-9D07-448D-3582-B982F85E6237}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DC4B90B-C744-CB4C-994A-D33D83BE6178}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1381,7 +1381,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D46A12B3-16DA-9C4F-3DED-2DEB43AFC6D5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AB80919-1855-DF21-B716-65E8F59C8E69}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1400,7 +1400,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63C0A91E-7C1A-C299-FA29-16797EF30C06}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44A339A1-D13C-DB72-FFC6-AFF6064BCC63}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1431,7 +1431,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4D5D035-3B9A-1E33-66CF-683DEEA1AC5F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6675CC9C-1CF4-FA37-C62C-42DC8C138DBE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1462,7 +1462,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2532F37C-4033-80B8-AEEE-90629F5F2399}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83C9F84B-2860-4404-18FD-357FC3064933}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1505,7 +1505,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{820DB6F4-1BB2-4197-BBA0-49BED97A2C01}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2902A3F1-9BC5-450F-98E6-AD3534F6FEA3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1543,7 +1543,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DEBCB5A-C637-4876-A294-334954BEE986}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A00CEB1-50FA-44E5-9C36-CEA845F2405D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1568,50 +1568,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E86D7438-C75B-4EAD-9EEC-FB7479E8A416}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1899,7 +1855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42193964-8DDF-4875-8854-D0086D5D6B08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D860AB-3FD8-4278-8324-D51020600874}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
